--- a/src/static/b_down.xlsx
+++ b/src/static/b_down.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="11420"/>
   </bookViews>
   <sheets>
     <sheet name="C端-单品直降导入模版" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>注意事项：
 1、标注“*”的为必填项，如不填写则此行数据将导入失败
@@ -40,19 +40,16 @@
   <si>
     <t>活动期间每人每账号限购</t>
   </si>
-  <si>
-    <t>B00071019</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -81,25 +78,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,14 +100,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -128,38 +115,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,10 +131,56 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,6 +192,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -197,24 +201,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,7 +231,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +303,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,13 +327,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,25 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,85 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,19 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,17 +425,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,11 +445,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,34 +498,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,148 +527,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -694,54 +691,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1035,22 +1032,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Z201"/>
+  <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.80357142857143" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="2" width="12.8916666666667" customWidth="1"/>
-    <col min="3" max="3" width="20.6" customWidth="1"/>
-    <col min="4" max="4" width="19.8833333333333" customWidth="1"/>
-    <col min="5" max="5" width="19.0333333333333" customWidth="1"/>
-    <col min="6" max="6" width="22.7666666666667" customWidth="1"/>
-    <col min="7" max="26" width="12.8916666666667" customWidth="1"/>
+    <col min="1" max="2" width="12.8928571428571" customWidth="1"/>
+    <col min="3" max="3" width="20.5982142857143" customWidth="1"/>
+    <col min="4" max="4" width="19.8839285714286" customWidth="1"/>
+    <col min="5" max="5" width="19.0357142857143" customWidth="1"/>
+    <col min="6" max="6" width="22.7678571428571" customWidth="1"/>
+    <col min="7" max="26" width="12.8928571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="84" customHeight="1" spans="1:6">
@@ -1063,7 +1060,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" ht="16.5" spans="1:26">
+    <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1103,25 +1100,13 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" ht="16.5" spans="1:26">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>200</v>
-      </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
-        <v>50</v>
-      </c>
-      <c r="F3" s="4">
-        <v>100</v>
-      </c>
+    <row r="3" spans="1:26">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1143,7 +1128,7 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" ht="16.5" spans="1:26">
+    <row r="4" spans="1:26">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1171,7 +1156,7 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" ht="16.5" spans="1:26">
+    <row r="5" spans="1:26">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1199,7 +1184,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" ht="16.5" spans="1:26">
+    <row r="6" spans="1:26">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1227,7 +1212,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" ht="16.5" spans="1:26">
+    <row r="7" spans="1:26">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1255,7 +1240,7 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" ht="16.5" spans="1:26">
+    <row r="8" spans="1:26">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1283,7 +1268,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" ht="16.5" spans="1:26">
+    <row r="9" spans="1:26">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1311,7 +1296,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" ht="16.5" spans="1:26">
+    <row r="10" spans="1:26">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1339,7 +1324,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" ht="16.5" spans="1:26">
+    <row r="11" spans="1:26">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1367,7 +1352,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" ht="16.5" spans="1:26">
+    <row r="12" spans="1:26">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1395,7 +1380,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" ht="16.5" spans="1:26">
+    <row r="13" spans="1:26">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1423,7 +1408,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" ht="16.5" spans="1:26">
+    <row r="14" spans="1:26">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1451,7 +1436,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" ht="16.5" spans="1:26">
+    <row r="15" spans="1:26">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1479,7 +1464,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" ht="16.5" spans="1:26">
+    <row r="16" spans="1:26">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1507,7 +1492,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" ht="16.5" spans="1:26">
+    <row r="17" spans="1:26">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1535,7 +1520,7 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" ht="16.5" spans="1:26">
+    <row r="18" spans="1:26">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1563,7 +1548,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" ht="16.5" spans="1:26">
+    <row r="19" spans="1:26">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1591,7 +1576,7 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" ht="16.5" spans="1:26">
+    <row r="20" spans="1:26">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1619,7 +1604,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" ht="16.5" spans="1:26">
+    <row r="21" spans="1:26">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1647,7 +1632,7 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" ht="16.5" spans="1:26">
+    <row r="22" spans="1:26">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1675,7 +1660,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" ht="16.5" spans="1:26">
+    <row r="23" spans="1:26">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1703,7 +1688,7 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" ht="16.5" spans="1:26">
+    <row r="24" spans="1:26">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -1731,7 +1716,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" ht="16.5" spans="1:26">
+    <row r="25" spans="1:26">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1759,7 +1744,7 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" ht="16.5" spans="1:26">
+    <row r="26" spans="1:26">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1787,7 +1772,7 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" ht="16.5" spans="1:26">
+    <row r="27" spans="1:26">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1815,7 +1800,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" ht="16.5" spans="1:26">
+    <row r="28" spans="1:26">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1843,7 +1828,7 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" ht="16.5" spans="1:26">
+    <row r="29" spans="1:26">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1871,7 +1856,7 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" ht="16.5" spans="1:26">
+    <row r="30" spans="1:26">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1899,7 +1884,7 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" ht="16.5" spans="1:26">
+    <row r="31" spans="1:26">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1927,7 +1912,7 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" ht="16.5" spans="1:26">
+    <row r="32" spans="1:26">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1955,7 +1940,7 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" ht="16.5" spans="1:26">
+    <row r="33" spans="1:26">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1983,7 +1968,7 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" ht="16.5" spans="1:26">
+    <row r="34" spans="1:26">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2011,7 +1996,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" ht="16.5" spans="1:26">
+    <row r="35" spans="1:26">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -2039,7 +2024,7 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" ht="16.5" spans="1:26">
+    <row r="36" spans="1:26">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -2067,7 +2052,7 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" ht="16.5" spans="1:26">
+    <row r="37" spans="1:26">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -2095,7 +2080,7 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" ht="16.5" spans="1:26">
+    <row r="38" spans="1:26">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -2123,7 +2108,7 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" ht="16.5" spans="1:26">
+    <row r="39" spans="1:26">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -2151,7 +2136,7 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" ht="16.5" spans="1:26">
+    <row r="40" spans="1:26">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2179,7 +2164,7 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" ht="16.5" spans="1:26">
+    <row r="41" spans="1:26">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -2207,7 +2192,7 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" ht="16.5" spans="1:26">
+    <row r="42" spans="1:26">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2235,7 +2220,7 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" ht="16.5" spans="1:26">
+    <row r="43" spans="1:26">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2263,7 +2248,7 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" ht="16.5" spans="1:26">
+    <row r="44" spans="1:26">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -2291,7 +2276,7 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" ht="16.5" spans="1:26">
+    <row r="45" spans="1:26">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -2319,7 +2304,7 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" ht="16.5" spans="1:26">
+    <row r="46" spans="1:26">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -2347,7 +2332,7 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" ht="16.5" spans="1:26">
+    <row r="47" spans="1:26">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -2375,7 +2360,7 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
     </row>
-    <row r="48" ht="16.5" spans="1:26">
+    <row r="48" spans="1:26">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -2403,7 +2388,7 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
     </row>
-    <row r="49" ht="16.5" spans="1:26">
+    <row r="49" spans="1:26">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -2431,7 +2416,7 @@
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
     </row>
-    <row r="50" ht="16.5" spans="1:26">
+    <row r="50" spans="1:26">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -2459,7 +2444,7 @@
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
     </row>
-    <row r="51" ht="16.5" spans="1:26">
+    <row r="51" spans="1:26">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -2487,7 +2472,7 @@
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
     </row>
-    <row r="52" ht="16.5" spans="1:26">
+    <row r="52" spans="1:26">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -2515,7 +2500,7 @@
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
     </row>
-    <row r="53" ht="16.5" spans="1:26">
+    <row r="53" spans="1:26">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -2543,7 +2528,7 @@
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
     </row>
-    <row r="54" ht="16.5" spans="1:26">
+    <row r="54" spans="1:26">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2571,7 +2556,7 @@
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
     </row>
-    <row r="55" ht="16.5" spans="1:26">
+    <row r="55" spans="1:26">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -2599,7 +2584,7 @@
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
     </row>
-    <row r="56" ht="16.5" spans="1:26">
+    <row r="56" spans="1:26">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -2627,7 +2612,7 @@
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
     </row>
-    <row r="57" ht="16.5" spans="1:26">
+    <row r="57" spans="1:26">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -2655,7 +2640,7 @@
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
     </row>
-    <row r="58" ht="16.5" spans="1:26">
+    <row r="58" spans="1:26">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2683,7 +2668,7 @@
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
     </row>
-    <row r="59" ht="16.5" spans="1:26">
+    <row r="59" spans="1:26">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2711,7 +2696,7 @@
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
     </row>
-    <row r="60" ht="16.5" spans="1:26">
+    <row r="60" spans="1:26">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2739,7 +2724,7 @@
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
     </row>
-    <row r="61" ht="16.5" spans="1:26">
+    <row r="61" spans="1:26">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -2767,7 +2752,7 @@
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
     </row>
-    <row r="62" ht="16.5" spans="1:26">
+    <row r="62" spans="1:26">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -2795,7 +2780,7 @@
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
     </row>
-    <row r="63" ht="16.5" spans="1:26">
+    <row r="63" spans="1:26">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -2823,7 +2808,7 @@
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
     </row>
-    <row r="64" ht="16.5" spans="1:26">
+    <row r="64" spans="1:26">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2851,7 +2836,7 @@
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
     </row>
-    <row r="65" ht="16.5" spans="1:26">
+    <row r="65" spans="1:26">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -2879,7 +2864,7 @@
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
     </row>
-    <row r="66" ht="16.5" spans="1:26">
+    <row r="66" spans="1:26">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2907,7 +2892,7 @@
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
     </row>
-    <row r="67" ht="16.5" spans="1:26">
+    <row r="67" spans="1:26">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2935,7 +2920,7 @@
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
     </row>
-    <row r="68" ht="16.5" spans="1:26">
+    <row r="68" spans="1:26">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -2963,7 +2948,7 @@
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
     </row>
-    <row r="69" ht="16.5" spans="1:26">
+    <row r="69" spans="1:26">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -2991,7 +2976,7 @@
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
     </row>
-    <row r="70" ht="16.5" spans="1:26">
+    <row r="70" spans="1:26">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -3019,7 +3004,7 @@
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
     </row>
-    <row r="71" ht="16.5" spans="1:26">
+    <row r="71" spans="1:26">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -3047,7 +3032,7 @@
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
     </row>
-    <row r="72" ht="16.5" spans="1:26">
+    <row r="72" spans="1:26">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -3075,7 +3060,7 @@
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
     </row>
-    <row r="73" ht="16.5" spans="1:26">
+    <row r="73" spans="1:26">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -3103,7 +3088,7 @@
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
     </row>
-    <row r="74" ht="16.5" spans="1:26">
+    <row r="74" spans="1:26">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -3131,7 +3116,7 @@
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
     </row>
-    <row r="75" ht="16.5" spans="1:26">
+    <row r="75" spans="1:26">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -3159,7 +3144,7 @@
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
     </row>
-    <row r="76" ht="16.5" spans="1:26">
+    <row r="76" spans="1:26">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -3187,7 +3172,7 @@
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
     </row>
-    <row r="77" ht="16.5" spans="1:26">
+    <row r="77" spans="1:26">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -3215,7 +3200,7 @@
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
     </row>
-    <row r="78" ht="16.5" spans="1:26">
+    <row r="78" spans="1:26">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -3243,7 +3228,7 @@
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
     </row>
-    <row r="79" ht="16.5" spans="1:26">
+    <row r="79" spans="1:26">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -3271,7 +3256,7 @@
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
     </row>
-    <row r="80" ht="16.5" spans="1:26">
+    <row r="80" spans="1:26">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -3299,7 +3284,7 @@
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
     </row>
-    <row r="81" ht="16.5" spans="1:26">
+    <row r="81" spans="1:26">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -3327,7 +3312,7 @@
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
     </row>
-    <row r="82" ht="16.5" spans="1:26">
+    <row r="82" spans="1:26">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -3355,7 +3340,7 @@
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
     </row>
-    <row r="83" ht="16.5" spans="1:26">
+    <row r="83" spans="1:26">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -3383,7 +3368,7 @@
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
     </row>
-    <row r="84" ht="16.5" spans="1:26">
+    <row r="84" spans="1:26">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -3411,7 +3396,7 @@
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
     </row>
-    <row r="85" ht="16.5" spans="1:26">
+    <row r="85" spans="1:26">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -3439,7 +3424,7 @@
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
     </row>
-    <row r="86" ht="16.5" spans="1:26">
+    <row r="86" spans="1:26">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -3467,7 +3452,7 @@
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
     </row>
-    <row r="87" ht="16.5" spans="1:26">
+    <row r="87" spans="1:26">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -3495,7 +3480,7 @@
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
     </row>
-    <row r="88" ht="16.5" spans="1:26">
+    <row r="88" spans="1:26">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3523,7 +3508,7 @@
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
     </row>
-    <row r="89" ht="16.5" spans="1:26">
+    <row r="89" spans="1:26">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -3551,7 +3536,7 @@
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
     </row>
-    <row r="90" ht="16.5" spans="1:26">
+    <row r="90" spans="1:26">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -3579,7 +3564,7 @@
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
     </row>
-    <row r="91" ht="16.5" spans="1:26">
+    <row r="91" spans="1:26">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -3607,7 +3592,7 @@
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
     </row>
-    <row r="92" ht="16.5" spans="1:26">
+    <row r="92" spans="1:26">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -3635,7 +3620,7 @@
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
     </row>
-    <row r="93" ht="16.5" spans="1:26">
+    <row r="93" spans="1:26">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -3663,7 +3648,7 @@
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
     </row>
-    <row r="94" ht="16.5" spans="1:26">
+    <row r="94" spans="1:26">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -3691,7 +3676,7 @@
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
     </row>
-    <row r="95" ht="16.5" spans="1:26">
+    <row r="95" spans="1:26">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -3719,7 +3704,7 @@
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
     </row>
-    <row r="96" ht="16.5" spans="1:26">
+    <row r="96" spans="1:26">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3747,7 +3732,7 @@
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
     </row>
-    <row r="97" ht="16.5" spans="1:26">
+    <row r="97" spans="1:26">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3775,7 +3760,7 @@
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
     </row>
-    <row r="98" ht="16.5" spans="1:26">
+    <row r="98" spans="1:26">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3803,7 +3788,7 @@
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
     </row>
-    <row r="99" ht="16.5" spans="1:26">
+    <row r="99" spans="1:26">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3831,7 +3816,7 @@
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
     </row>
-    <row r="100" ht="16.5" spans="1:26">
+    <row r="100" spans="1:26">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3859,7 +3844,7 @@
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
     </row>
-    <row r="101" ht="16.5" spans="1:26">
+    <row r="101" spans="1:26">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3887,7 +3872,7 @@
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
     </row>
-    <row r="102" ht="16.5" spans="1:26">
+    <row r="102" spans="1:26">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3915,7 +3900,7 @@
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
     </row>
-    <row r="103" ht="16.5" spans="1:26">
+    <row r="103" spans="1:26">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3943,7 +3928,7 @@
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
     </row>
-    <row r="104" ht="16.5" spans="1:26">
+    <row r="104" spans="1:26">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3971,7 +3956,7 @@
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
     </row>
-    <row r="105" ht="16.5" spans="1:26">
+    <row r="105" spans="1:26">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3999,7 +3984,7 @@
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
     </row>
-    <row r="106" ht="16.5" spans="1:26">
+    <row r="106" spans="1:26">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -4027,7 +4012,7 @@
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
     </row>
-    <row r="107" ht="16.5" spans="1:26">
+    <row r="107" spans="1:26">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -4055,7 +4040,7 @@
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
     </row>
-    <row r="108" ht="16.5" spans="1:26">
+    <row r="108" spans="1:26">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -4083,7 +4068,7 @@
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
     </row>
-    <row r="109" ht="16.5" spans="1:26">
+    <row r="109" spans="1:26">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -4111,7 +4096,7 @@
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
     </row>
-    <row r="110" ht="16.5" spans="1:26">
+    <row r="110" spans="1:26">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -4139,7 +4124,7 @@
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
     </row>
-    <row r="111" ht="16.5" spans="1:26">
+    <row r="111" spans="1:26">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -4167,7 +4152,7 @@
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
     </row>
-    <row r="112" ht="16.5" spans="1:26">
+    <row r="112" spans="1:26">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -4195,7 +4180,7 @@
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
     </row>
-    <row r="113" ht="16.5" spans="1:26">
+    <row r="113" spans="1:26">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -4223,7 +4208,7 @@
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
     </row>
-    <row r="114" ht="16.5" spans="1:26">
+    <row r="114" spans="1:26">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -4251,7 +4236,7 @@
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
     </row>
-    <row r="115" ht="16.5" spans="1:26">
+    <row r="115" spans="1:26">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -4279,7 +4264,7 @@
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
     </row>
-    <row r="116" ht="16.5" spans="1:26">
+    <row r="116" spans="1:26">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -4307,7 +4292,7 @@
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
     </row>
-    <row r="117" ht="16.5" spans="1:26">
+    <row r="117" spans="1:26">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -4335,7 +4320,7 @@
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
     </row>
-    <row r="118" ht="16.5" spans="1:26">
+    <row r="118" spans="1:26">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -4363,7 +4348,7 @@
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
     </row>
-    <row r="119" ht="16.5" spans="1:26">
+    <row r="119" spans="1:26">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4391,7 +4376,7 @@
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
     </row>
-    <row r="120" ht="16.5" spans="1:26">
+    <row r="120" spans="1:26">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4419,7 +4404,7 @@
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
     </row>
-    <row r="121" ht="16.5" spans="1:26">
+    <row r="121" spans="1:26">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4447,7 +4432,7 @@
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
     </row>
-    <row r="122" ht="16.5" spans="1:26">
+    <row r="122" spans="1:26">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4475,7 +4460,7 @@
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
     </row>
-    <row r="123" ht="16.5" spans="1:26">
+    <row r="123" spans="1:26">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4503,7 +4488,7 @@
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
     </row>
-    <row r="124" ht="16.5" spans="1:26">
+    <row r="124" spans="1:26">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4531,7 +4516,7 @@
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
     </row>
-    <row r="125" ht="16.5" spans="1:26">
+    <row r="125" spans="1:26">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4559,7 +4544,7 @@
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
     </row>
-    <row r="126" ht="16.5" spans="1:26">
+    <row r="126" spans="1:26">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4587,7 +4572,7 @@
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
     </row>
-    <row r="127" ht="16.5" spans="1:26">
+    <row r="127" spans="1:26">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4615,7 +4600,7 @@
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
     </row>
-    <row r="128" ht="16.5" spans="1:26">
+    <row r="128" spans="1:26">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4643,7 +4628,7 @@
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
     </row>
-    <row r="129" ht="16.5" spans="1:26">
+    <row r="129" spans="1:26">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4671,7 +4656,7 @@
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
     </row>
-    <row r="130" ht="16.5" spans="1:26">
+    <row r="130" spans="1:26">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4699,7 +4684,7 @@
       <c r="Y130" s="4"/>
       <c r="Z130" s="4"/>
     </row>
-    <row r="131" ht="16.5" spans="1:26">
+    <row r="131" spans="1:26">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4727,7 +4712,7 @@
       <c r="Y131" s="4"/>
       <c r="Z131" s="4"/>
     </row>
-    <row r="132" ht="16.5" spans="1:26">
+    <row r="132" spans="1:26">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4755,7 +4740,7 @@
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
     </row>
-    <row r="133" ht="16.5" spans="1:26">
+    <row r="133" spans="1:26">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -4783,7 +4768,7 @@
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
     </row>
-    <row r="134" ht="16.5" spans="1:26">
+    <row r="134" spans="1:26">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4811,7 +4796,7 @@
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
     </row>
-    <row r="135" ht="16.5" spans="1:26">
+    <row r="135" spans="1:26">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -4839,7 +4824,7 @@
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
     </row>
-    <row r="136" ht="16.5" spans="1:26">
+    <row r="136" spans="1:26">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4867,7 +4852,7 @@
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
     </row>
-    <row r="137" ht="16.5" spans="1:26">
+    <row r="137" spans="1:26">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -4895,7 +4880,7 @@
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
     </row>
-    <row r="138" ht="16.5" spans="1:26">
+    <row r="138" spans="1:26">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -4923,7 +4908,7 @@
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
     </row>
-    <row r="139" ht="16.5" spans="1:26">
+    <row r="139" spans="1:26">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -4951,7 +4936,7 @@
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
     </row>
-    <row r="140" ht="16.5" spans="1:26">
+    <row r="140" spans="1:26">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4979,7 +4964,7 @@
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
     </row>
-    <row r="141" ht="16.5" spans="1:26">
+    <row r="141" spans="1:26">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -5007,7 +4992,7 @@
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
     </row>
-    <row r="142" ht="16.5" spans="1:26">
+    <row r="142" spans="1:26">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -5035,7 +5020,7 @@
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
     </row>
-    <row r="143" ht="16.5" spans="1:26">
+    <row r="143" spans="1:26">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -5063,7 +5048,7 @@
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
     </row>
-    <row r="144" ht="16.5" spans="1:26">
+    <row r="144" spans="1:26">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -5091,7 +5076,7 @@
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
     </row>
-    <row r="145" ht="16.5" spans="1:26">
+    <row r="145" spans="1:26">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -5119,7 +5104,7 @@
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
     </row>
-    <row r="146" ht="16.5" spans="1:26">
+    <row r="146" spans="1:26">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -5147,7 +5132,7 @@
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
     </row>
-    <row r="147" ht="16.5" spans="1:26">
+    <row r="147" spans="1:26">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -5175,7 +5160,7 @@
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
     </row>
-    <row r="148" ht="16.5" spans="1:26">
+    <row r="148" spans="1:26">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -5203,7 +5188,7 @@
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
     </row>
-    <row r="149" ht="16.5" spans="1:26">
+    <row r="149" spans="1:26">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -5231,7 +5216,7 @@
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
     </row>
-    <row r="150" ht="16.5" spans="1:26">
+    <row r="150" spans="1:26">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -5259,7 +5244,7 @@
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
     </row>
-    <row r="151" ht="16.5" spans="1:26">
+    <row r="151" spans="1:26">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -5287,7 +5272,7 @@
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
     </row>
-    <row r="152" ht="16.5" spans="1:26">
+    <row r="152" spans="1:26">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -5315,7 +5300,7 @@
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
     </row>
-    <row r="153" ht="16.5" spans="1:26">
+    <row r="153" spans="1:26">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -5343,7 +5328,7 @@
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
     </row>
-    <row r="154" ht="16.5" spans="1:26">
+    <row r="154" spans="1:26">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -5371,7 +5356,7 @@
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
     </row>
-    <row r="155" ht="16.5" spans="1:26">
+    <row r="155" spans="1:26">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -5399,7 +5384,7 @@
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
     </row>
-    <row r="156" ht="16.5" spans="1:26">
+    <row r="156" spans="1:26">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -5427,7 +5412,7 @@
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
     </row>
-    <row r="157" ht="16.5" spans="1:26">
+    <row r="157" spans="1:26">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -5455,7 +5440,7 @@
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
     </row>
-    <row r="158" ht="16.5" spans="1:26">
+    <row r="158" spans="1:26">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -5483,7 +5468,7 @@
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
     </row>
-    <row r="159" ht="16.5" spans="1:26">
+    <row r="159" spans="1:26">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -5511,7 +5496,7 @@
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
     </row>
-    <row r="160" ht="16.5" spans="1:26">
+    <row r="160" spans="1:26">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -5539,7 +5524,7 @@
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
     </row>
-    <row r="161" ht="16.5" spans="1:26">
+    <row r="161" spans="1:26">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -5567,7 +5552,7 @@
       <c r="Y161" s="4"/>
       <c r="Z161" s="4"/>
     </row>
-    <row r="162" ht="16.5" spans="1:26">
+    <row r="162" spans="1:26">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -5595,7 +5580,7 @@
       <c r="Y162" s="4"/>
       <c r="Z162" s="4"/>
     </row>
-    <row r="163" ht="16.5" spans="1:26">
+    <row r="163" spans="1:26">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -5623,7 +5608,7 @@
       <c r="Y163" s="4"/>
       <c r="Z163" s="4"/>
     </row>
-    <row r="164" ht="16.5" spans="1:26">
+    <row r="164" spans="1:26">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -5651,7 +5636,7 @@
       <c r="Y164" s="4"/>
       <c r="Z164" s="4"/>
     </row>
-    <row r="165" ht="16.5" spans="1:26">
+    <row r="165" spans="1:26">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -5679,7 +5664,7 @@
       <c r="Y165" s="4"/>
       <c r="Z165" s="4"/>
     </row>
-    <row r="166" ht="16.5" spans="1:26">
+    <row r="166" spans="1:26">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -5707,7 +5692,7 @@
       <c r="Y166" s="4"/>
       <c r="Z166" s="4"/>
     </row>
-    <row r="167" ht="16.5" spans="1:26">
+    <row r="167" spans="1:26">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -5735,7 +5720,7 @@
       <c r="Y167" s="4"/>
       <c r="Z167" s="4"/>
     </row>
-    <row r="168" ht="16.5" spans="1:26">
+    <row r="168" spans="1:26">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -5763,7 +5748,7 @@
       <c r="Y168" s="4"/>
       <c r="Z168" s="4"/>
     </row>
-    <row r="169" ht="16.5" spans="1:26">
+    <row r="169" spans="1:26">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -5791,7 +5776,7 @@
       <c r="Y169" s="4"/>
       <c r="Z169" s="4"/>
     </row>
-    <row r="170" ht="16.5" spans="1:26">
+    <row r="170" spans="1:26">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -5819,7 +5804,7 @@
       <c r="Y170" s="4"/>
       <c r="Z170" s="4"/>
     </row>
-    <row r="171" ht="16.5" spans="1:26">
+    <row r="171" spans="1:26">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -5847,7 +5832,7 @@
       <c r="Y171" s="4"/>
       <c r="Z171" s="4"/>
     </row>
-    <row r="172" ht="16.5" spans="1:26">
+    <row r="172" spans="1:26">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -5875,7 +5860,7 @@
       <c r="Y172" s="4"/>
       <c r="Z172" s="4"/>
     </row>
-    <row r="173" ht="16.5" spans="1:26">
+    <row r="173" spans="1:26">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -5903,7 +5888,7 @@
       <c r="Y173" s="4"/>
       <c r="Z173" s="4"/>
     </row>
-    <row r="174" ht="16.5" spans="1:26">
+    <row r="174" spans="1:26">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -5931,7 +5916,7 @@
       <c r="Y174" s="4"/>
       <c r="Z174" s="4"/>
     </row>
-    <row r="175" ht="16.5" spans="1:26">
+    <row r="175" spans="1:26">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -5959,7 +5944,7 @@
       <c r="Y175" s="4"/>
       <c r="Z175" s="4"/>
     </row>
-    <row r="176" ht="16.5" spans="1:26">
+    <row r="176" spans="1:26">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -5987,7 +5972,7 @@
       <c r="Y176" s="4"/>
       <c r="Z176" s="4"/>
     </row>
-    <row r="177" ht="16.5" spans="1:26">
+    <row r="177" spans="1:26">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -6015,7 +6000,7 @@
       <c r="Y177" s="4"/>
       <c r="Z177" s="4"/>
     </row>
-    <row r="178" ht="16.5" spans="1:26">
+    <row r="178" spans="1:26">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -6043,7 +6028,7 @@
       <c r="Y178" s="4"/>
       <c r="Z178" s="4"/>
     </row>
-    <row r="179" ht="16.5" spans="1:26">
+    <row r="179" spans="1:26">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -6071,7 +6056,7 @@
       <c r="Y179" s="4"/>
       <c r="Z179" s="4"/>
     </row>
-    <row r="180" ht="16.5" spans="1:26">
+    <row r="180" spans="1:26">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -6099,7 +6084,7 @@
       <c r="Y180" s="4"/>
       <c r="Z180" s="4"/>
     </row>
-    <row r="181" ht="16.5" spans="1:26">
+    <row r="181" spans="1:26">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -6127,7 +6112,7 @@
       <c r="Y181" s="4"/>
       <c r="Z181" s="4"/>
     </row>
-    <row r="182" ht="16.5" spans="1:26">
+    <row r="182" spans="1:26">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -6155,7 +6140,7 @@
       <c r="Y182" s="4"/>
       <c r="Z182" s="4"/>
     </row>
-    <row r="183" ht="16.5" spans="1:26">
+    <row r="183" spans="1:26">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -6183,7 +6168,7 @@
       <c r="Y183" s="4"/>
       <c r="Z183" s="4"/>
     </row>
-    <row r="184" ht="16.5" spans="1:26">
+    <row r="184" spans="1:26">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -6211,7 +6196,7 @@
       <c r="Y184" s="4"/>
       <c r="Z184" s="4"/>
     </row>
-    <row r="185" ht="16.5" spans="1:26">
+    <row r="185" spans="1:26">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -6239,7 +6224,7 @@
       <c r="Y185" s="4"/>
       <c r="Z185" s="4"/>
     </row>
-    <row r="186" ht="16.5" spans="1:26">
+    <row r="186" spans="1:26">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -6267,7 +6252,7 @@
       <c r="Y186" s="4"/>
       <c r="Z186" s="4"/>
     </row>
-    <row r="187" ht="16.5" spans="1:26">
+    <row r="187" spans="1:26">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -6295,7 +6280,7 @@
       <c r="Y187" s="4"/>
       <c r="Z187" s="4"/>
     </row>
-    <row r="188" ht="16.5" spans="1:26">
+    <row r="188" spans="1:26">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -6323,7 +6308,7 @@
       <c r="Y188" s="4"/>
       <c r="Z188" s="4"/>
     </row>
-    <row r="189" ht="16.5" spans="1:26">
+    <row r="189" spans="1:26">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -6351,7 +6336,7 @@
       <c r="Y189" s="4"/>
       <c r="Z189" s="4"/>
     </row>
-    <row r="190" ht="16.5" spans="1:26">
+    <row r="190" spans="1:26">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -6379,7 +6364,7 @@
       <c r="Y190" s="4"/>
       <c r="Z190" s="4"/>
     </row>
-    <row r="191" ht="16.5" spans="1:26">
+    <row r="191" spans="1:26">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -6407,7 +6392,7 @@
       <c r="Y191" s="4"/>
       <c r="Z191" s="4"/>
     </row>
-    <row r="192" ht="16.5" spans="1:26">
+    <row r="192" spans="1:26">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -6435,7 +6420,7 @@
       <c r="Y192" s="4"/>
       <c r="Z192" s="4"/>
     </row>
-    <row r="193" ht="16.5" spans="1:26">
+    <row r="193" spans="1:26">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -6463,7 +6448,7 @@
       <c r="Y193" s="4"/>
       <c r="Z193" s="4"/>
     </row>
-    <row r="194" ht="16.5" spans="1:26">
+    <row r="194" spans="1:26">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -6491,7 +6476,7 @@
       <c r="Y194" s="4"/>
       <c r="Z194" s="4"/>
     </row>
-    <row r="195" ht="16.5" spans="1:26">
+    <row r="195" spans="1:26">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -6519,7 +6504,7 @@
       <c r="Y195" s="4"/>
       <c r="Z195" s="4"/>
     </row>
-    <row r="196" ht="16.5" spans="1:26">
+    <row r="196" spans="1:26">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -6547,7 +6532,7 @@
       <c r="Y196" s="4"/>
       <c r="Z196" s="4"/>
     </row>
-    <row r="197" ht="16.5" spans="1:26">
+    <row r="197" spans="1:26">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -6575,7 +6560,7 @@
       <c r="Y197" s="4"/>
       <c r="Z197" s="4"/>
     </row>
-    <row r="198" ht="16.5" spans="1:26">
+    <row r="198" spans="1:26">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -6603,7 +6588,7 @@
       <c r="Y198" s="4"/>
       <c r="Z198" s="4"/>
     </row>
-    <row r="199" ht="16.5" spans="1:26">
+    <row r="199" spans="1:26">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -6631,7 +6616,7 @@
       <c r="Y199" s="4"/>
       <c r="Z199" s="4"/>
     </row>
-    <row r="200" ht="16.5" spans="1:26">
+    <row r="200" spans="1:26">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -6659,34 +6644,6 @@
       <c r="Y200" s="4"/>
       <c r="Z200" s="4"/>
     </row>
-    <row r="201" ht="16.5" spans="1:26">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-      <c r="G201" s="4"/>
-      <c r="H201" s="4"/>
-      <c r="I201" s="4"/>
-      <c r="J201" s="4"/>
-      <c r="K201" s="4"/>
-      <c r="L201" s="4"/>
-      <c r="M201" s="4"/>
-      <c r="N201" s="4"/>
-      <c r="O201" s="4"/>
-      <c r="P201" s="4"/>
-      <c r="Q201" s="4"/>
-      <c r="R201" s="4"/>
-      <c r="S201" s="4"/>
-      <c r="T201" s="4"/>
-      <c r="U201" s="4"/>
-      <c r="V201" s="4"/>
-      <c r="W201" s="4"/>
-      <c r="X201" s="4"/>
-      <c r="Y201" s="4"/>
-      <c r="Z201" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
